--- a/glue_emrserverless_comparison/benchmark_results.xlsx
+++ b/glue_emrserverless_comparison/benchmark_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MyAWS\aws_howto\glue_emrserverless_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAD79D4-D6EA-4E25-9679-173A36F293D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D99C552-68FC-42E7-9489-8B30B0002363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57735" yWindow="-135" windowWidth="29070" windowHeight="16020" xr2:uid="{F9004902-EF98-40EE-97DE-59D7019E5C8E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{F9004902-EF98-40EE-97DE-59D7019E5C8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>Test: Convert 1 Year amount of NYC Taxi Rides from CSV to Parquet. Source data volume Is ~4Gb.</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Glue (Native Spark)</t>
+  </si>
+  <si>
+    <t>WITH DATA TYPE CONVERSION</t>
   </si>
 </sst>
 </file>
@@ -139,9 +142,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="171" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="166" formatCode="0.0000_);\(0.0000\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -446,18 +449,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,30 +473,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -510,36 +501,48 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -857,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8D5112-1C0F-42E7-AFFE-E3A033B67365}">
-  <dimension ref="A2:V17"/>
+  <dimension ref="A2:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,44 +889,44 @@
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="5" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="5" t="s">
+      <c r="J4" s="65"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="7"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -935,589 +938,589 @@
       <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="14" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="14" t="s">
         <v>15</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="U5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="V5" s="23" t="s">
+      <c r="V5" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="29">
         <v>6</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="30">
         <v>294</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="31">
         <v>2</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="32">
         <f>D6/60/60*E6</f>
         <v>0.16333333333333336</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="33">
         <v>0.44</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="34">
         <f>F6*$G$6</f>
         <v>7.1866666666666676E-2</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="35">
         <v>40</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="36">
         <v>146</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="31">
         <v>0.47</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="37">
         <v>5.2623999999999997E-2</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="31">
         <v>2.0329999999999999</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="37">
         <v>5.7784999999999998E-3</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="38">
         <f>K6*$L$6+M6*$N$6</f>
         <v>3.6480970499999994E-2</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="35">
         <v>40</v>
       </c>
-      <c r="Q6" s="40">
+      <c r="Q6" s="36">
         <v>146</v>
       </c>
-      <c r="R6" s="63">
+      <c r="R6" s="59">
         <v>0.47</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="37">
         <v>5.2623999999999997E-2</v>
       </c>
-      <c r="T6" s="63">
+      <c r="T6" s="59">
         <v>2.0329999999999999</v>
       </c>
-      <c r="U6" s="41">
+      <c r="U6" s="37">
         <v>5.7784999999999998E-3</v>
       </c>
-      <c r="V6" s="42">
+      <c r="V6" s="38">
         <f>R6*$L$6+T6*$N$6</f>
         <v>3.6480970499999994E-2</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30">
         <v>278</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="31">
         <v>2</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="32">
         <f>D7/60/60*E7</f>
         <v>0.15444444444444447</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="38">
+      <c r="G7" s="31"/>
+      <c r="H7" s="34">
         <f t="shared" ref="H7:H14" si="0">F7*$G$6</f>
         <v>6.7955555555555561E-2</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="35">
         <v>41</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="36">
         <v>148</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="31">
         <v>0.47099999999999997</v>
       </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="35">
+      <c r="L7" s="37"/>
+      <c r="M7" s="31">
         <v>2.0379999999999998</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="42">
+      <c r="N7" s="37"/>
+      <c r="O7" s="38">
         <f t="shared" ref="O7:O14" si="1">K7*$L$6+M7*$N$6</f>
         <v>3.6562486999999998E-2</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="35">
         <v>41</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="36">
         <v>148</v>
       </c>
-      <c r="R7" s="63">
+      <c r="R7" s="59">
         <v>0.47099999999999997</v>
       </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="63">
+      <c r="S7" s="37"/>
+      <c r="T7" s="59">
         <v>2.0379999999999998</v>
       </c>
-      <c r="U7" s="41"/>
-      <c r="V7" s="42">
+      <c r="U7" s="37"/>
+      <c r="V7" s="38">
         <f t="shared" ref="V7:V14" si="2">R7*$L$6+T7*$N$6</f>
         <v>3.6562486999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30">
         <v>283</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="31">
         <v>2</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="32">
         <f>D8/60/60*E8</f>
         <v>0.15722222222222224</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="38">
+      <c r="G8" s="31"/>
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>6.9177777777777782E-2</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="35">
         <v>40</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="36">
         <v>148</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="31">
         <v>0.46600000000000003</v>
       </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="35">
+      <c r="L8" s="37"/>
+      <c r="M8" s="31">
         <v>2.0129999999999999</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42">
+      <c r="N8" s="37"/>
+      <c r="O8" s="38">
         <f t="shared" si="1"/>
         <v>3.6154904500000001E-2</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="35">
         <v>40</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="36">
         <v>148</v>
       </c>
-      <c r="R8" s="63">
+      <c r="R8" s="59">
         <v>0.46600000000000003</v>
       </c>
-      <c r="S8" s="41"/>
-      <c r="T8" s="63">
+      <c r="S8" s="37"/>
+      <c r="T8" s="59">
         <v>2.0129999999999999</v>
       </c>
-      <c r="U8" s="41"/>
-      <c r="V8" s="42">
+      <c r="U8" s="37"/>
+      <c r="V8" s="38">
         <f t="shared" si="2"/>
         <v>3.6154904500000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="25">
         <v>12</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>125</v>
       </c>
       <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="23">
         <f>D9/60/60*E9</f>
         <v>0.20833333333333334</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="26">
+      <c r="H9" s="22">
         <f t="shared" si="0"/>
         <v>9.1666666666666674E-2</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="16">
         <v>40</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="17">
         <v>83</v>
       </c>
       <c r="K9" s="3">
         <v>0.58099999999999996</v>
       </c>
-      <c r="L9" s="18"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="3">
         <v>2.569</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="24">
+      <c r="N9" s="15"/>
+      <c r="O9" s="20">
         <f t="shared" si="1"/>
         <v>4.5419510499999996E-2</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="16">
         <v>40</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="17">
         <v>83</v>
       </c>
-      <c r="R9" s="63">
+      <c r="R9" s="59">
         <v>0.58099999999999996</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="63">
+      <c r="S9" s="15"/>
+      <c r="T9" s="59">
         <v>2.569</v>
       </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="24">
+      <c r="U9" s="15"/>
+      <c r="V9" s="20">
         <f t="shared" si="2"/>
         <v>4.5419510499999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="12">
+      <c r="C10" s="25"/>
+      <c r="D10" s="10">
         <v>145</v>
       </c>
       <c r="E10" s="3">
         <v>6</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="23">
         <f t="shared" ref="F10:F11" si="3">D10/60/60*E10</f>
         <v>0.24166666666666664</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <f t="shared" si="0"/>
         <v>0.10633333333333332</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="16">
         <v>41</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="17">
         <v>79.5</v>
       </c>
       <c r="K10" s="3">
         <v>0.58199999999999996</v>
       </c>
-      <c r="L10" s="18"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="3">
         <v>2.5739999999999998</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="24">
+      <c r="N10" s="15"/>
+      <c r="O10" s="20">
         <f t="shared" si="1"/>
         <v>4.5501026999999993E-2</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="16">
         <v>41</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="17">
         <v>79.5</v>
       </c>
-      <c r="R10" s="63">
+      <c r="R10" s="59">
         <v>0.58199999999999996</v>
       </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="63">
+      <c r="S10" s="15"/>
+      <c r="T10" s="59">
         <v>2.5739999999999998</v>
       </c>
-      <c r="U10" s="18"/>
-      <c r="V10" s="24">
+      <c r="U10" s="15"/>
+      <c r="V10" s="20">
         <f t="shared" si="2"/>
         <v>4.5501026999999993E-2</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="12">
+      <c r="C11" s="25"/>
+      <c r="D11" s="10">
         <v>145</v>
       </c>
       <c r="E11" s="3">
         <v>6</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="23">
         <f t="shared" si="3"/>
         <v>0.24166666666666664</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="26">
+      <c r="H11" s="22">
         <f t="shared" si="0"/>
         <v>0.10633333333333332</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="16">
         <v>39</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="17">
         <v>83</v>
       </c>
       <c r="K11" s="3">
         <v>0.60099999999999998</v>
       </c>
-      <c r="L11" s="18"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="3">
         <v>2.6579999999999999</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="24">
+      <c r="N11" s="15"/>
+      <c r="O11" s="20">
         <f t="shared" si="1"/>
         <v>4.6986276999999993E-2</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="16">
         <v>39</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="17">
         <v>83</v>
       </c>
-      <c r="R11" s="63">
+      <c r="R11" s="59">
         <v>0.60099999999999998</v>
       </c>
-      <c r="S11" s="18"/>
-      <c r="T11" s="63">
+      <c r="S11" s="15"/>
+      <c r="T11" s="59">
         <v>2.6579999999999999</v>
       </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="24">
+      <c r="U11" s="15"/>
+      <c r="V11" s="20">
         <f t="shared" si="2"/>
         <v>4.6986276999999993E-2</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="41">
         <v>4</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="42">
         <v>118</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="44">
         <v>0.223</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="49">
+      <c r="G12" s="43"/>
+      <c r="H12" s="45">
         <f t="shared" si="0"/>
         <v>9.8119999999999999E-2</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="46">
         <v>43</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="47">
         <v>97</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="43">
         <v>0.621</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="47">
+      <c r="L12" s="48"/>
+      <c r="M12" s="43">
         <v>2.484</v>
       </c>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53">
+      <c r="N12" s="48"/>
+      <c r="O12" s="49">
         <f t="shared" si="1"/>
         <v>4.7033298000000001E-2</v>
       </c>
-      <c r="P12" s="50">
+      <c r="P12" s="46">
         <v>43</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="47">
         <v>97</v>
       </c>
-      <c r="R12" s="64">
+      <c r="R12" s="60">
         <v>0.80100000000000005</v>
       </c>
-      <c r="S12" s="52"/>
-      <c r="T12" s="64">
+      <c r="S12" s="48"/>
+      <c r="T12" s="60">
         <v>3.2040000000000002</v>
       </c>
-      <c r="U12" s="52"/>
-      <c r="V12" s="53">
+      <c r="U12" s="48"/>
+      <c r="V12" s="49">
         <f t="shared" si="2"/>
         <v>6.0666137999999994E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46">
+      <c r="C13" s="41"/>
+      <c r="D13" s="42">
         <v>111</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="44">
         <v>0.217</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="49">
+      <c r="G13" s="43"/>
+      <c r="H13" s="45">
         <f t="shared" si="0"/>
         <v>9.5479999999999995E-2</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="46">
         <v>39</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="47">
         <v>96</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="43">
         <v>0.629</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="47">
+      <c r="L13" s="48"/>
+      <c r="M13" s="43">
         <v>2.516</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53">
+      <c r="N13" s="48"/>
+      <c r="O13" s="49">
         <f t="shared" si="1"/>
         <v>4.7639201999999999E-2</v>
       </c>
-      <c r="P13" s="50">
+      <c r="P13" s="46">
         <v>39</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="47">
         <v>96</v>
       </c>
-      <c r="R13" s="64">
+      <c r="R13" s="60">
         <v>0.80200000000000005</v>
       </c>
-      <c r="S13" s="52"/>
-      <c r="T13" s="64">
+      <c r="S13" s="48"/>
+      <c r="T13" s="60">
         <v>3.2090000000000001</v>
       </c>
-      <c r="U13" s="52"/>
-      <c r="V13" s="53">
+      <c r="U13" s="48"/>
+      <c r="V13" s="49">
         <f t="shared" si="2"/>
         <v>6.0747654499999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57">
+      <c r="C14" s="52"/>
+      <c r="D14" s="53">
         <v>106</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="55">
         <v>0.2</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="49">
+      <c r="G14" s="54"/>
+      <c r="H14" s="45">
         <f t="shared" si="0"/>
         <v>8.8000000000000009E-2</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="56">
         <v>40</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="57">
         <v>98</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="54">
         <v>0.623</v>
       </c>
-      <c r="L14" s="62"/>
-      <c r="M14" s="58">
+      <c r="L14" s="58"/>
+      <c r="M14" s="54">
         <v>2.4929999999999999</v>
       </c>
-      <c r="N14" s="62"/>
-      <c r="O14" s="53">
+      <c r="N14" s="58"/>
+      <c r="O14" s="49">
         <f t="shared" si="1"/>
         <v>4.7190552499999996E-2</v>
       </c>
-      <c r="P14" s="60">
+      <c r="P14" s="56">
         <v>40</v>
       </c>
-      <c r="Q14" s="61">
+      <c r="Q14" s="57">
         <v>98</v>
       </c>
-      <c r="R14" s="65">
+      <c r="R14" s="61">
         <v>0.80400000000000005</v>
       </c>
-      <c r="S14" s="62"/>
-      <c r="T14" s="65">
+      <c r="S14" s="58"/>
+      <c r="T14" s="61">
         <v>3.218</v>
       </c>
-      <c r="U14" s="62"/>
-      <c r="V14" s="53">
+      <c r="U14" s="58"/>
+      <c r="V14" s="49">
         <f t="shared" si="2"/>
         <v>6.0904909E-2</v>
       </c>
@@ -1527,16 +1530,372 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="65"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="64"/>
+    </row>
+    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31">
+        <v>2</v>
+      </c>
+      <c r="F23" s="32">
+        <f>D23/60/60*E23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="33">
+        <v>0.44</v>
+      </c>
+      <c r="H23" s="34">
+        <f>F23*$G$6</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="37">
+        <v>5.2623999999999997E-2</v>
+      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="37">
+        <v>5.7784999999999998E-3</v>
+      </c>
+      <c r="O23" s="38">
+        <f>K23*$L$6+M23*$N$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31">
+        <v>2</v>
+      </c>
+      <c r="F24" s="32">
+        <f>D24/60/60*E24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="34">
+        <f t="shared" ref="H24:H31" si="4">F24*$G$6</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38">
+        <f t="shared" ref="O24:O31" si="5">K24*$L$6+M24*$N$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31">
+        <v>2</v>
+      </c>
+      <c r="F25" s="32">
+        <f>D25/60/60*E25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="10">
+        <v>223</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+      <c r="F26" s="23">
+        <f>D26/60/60*E26</f>
+        <v>0.3716666666666667</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="22">
+        <f t="shared" si="4"/>
+        <v>0.16353333333333334</v>
+      </c>
+      <c r="I26" s="16">
+        <v>38</v>
+      </c>
+      <c r="J26" s="17">
+        <v>110</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="3">
+        <v>3.4489999999999998</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="20">
+        <f t="shared" si="5"/>
+        <v>6.0976766500000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="23">
+        <f t="shared" ref="F27:F28" si="6">D27/60/60*E27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="3">
+        <v>6</v>
+      </c>
+      <c r="F28" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="46"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="50"/>
+      <c r="B31" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="55"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/glue_emrserverless_comparison/benchmark_results.xlsx
+++ b/glue_emrserverless_comparison/benchmark_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MyAWS\aws_howto\glue_emrserverless_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A14BEC0-A1B6-4AE7-8000-09E42B607B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764E1F5C-ADC7-4297-8764-40B7F98A3C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F9004902-EF98-40EE-97DE-59D7019E5C8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Cost, USD</t>
   </si>
@@ -153,6 +153,21 @@
     <t>Capacity 
 (# of 
 Workers)</t>
+  </si>
+  <si>
+    <t>EMR Serverless BILLED (when differs from "consumed")</t>
+  </si>
+  <si>
+    <t>Exec time ratio</t>
+  </si>
+  <si>
+    <t>Glue</t>
+  </si>
+  <si>
+    <t>WarmUp+Exec</t>
+  </si>
+  <si>
+    <t>EMR-S</t>
   </si>
 </sst>
 </file>
@@ -547,7 +562,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -654,9 +669,6 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -686,6 +698,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,6 +722,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1024,17 +1055,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BBC7FE-388E-45A3-94A8-08448A5B69D5}">
-  <dimension ref="B2:V17"/>
+  <dimension ref="B2:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
@@ -1046,19 +1077,25 @@
     <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.44140625" style="93" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="85" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="90" t="s">
@@ -1078,19 +1115,28 @@
       <c r="N4" s="88"/>
       <c r="O4" s="88"/>
       <c r="P4" s="89"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="86" t="s">
+        <v>33</v>
+      </c>
       <c r="S4" s="88"/>
       <c r="T4" s="88"/>
-      <c r="U4" s="89"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="Z4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="2:22" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="50"/>
       <c r="C5" s="51"/>
       <c r="D5" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="79" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="53" t="s">
@@ -1126,36 +1172,46 @@
       <c r="P5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="95"/>
+      <c r="R5" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="S5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="U5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="V5" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="Y5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="60">
         <v>14</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="80">
         <v>131</v>
       </c>
-      <c r="F6" s="83">
+      <c r="F6" s="82">
         <v>6</v>
       </c>
       <c r="G6" s="62">
@@ -1191,33 +1247,46 @@
         <f>L6*$M$6+N6*$O$6</f>
         <v>5.9875985E-2</v>
       </c>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="20">
+      <c r="Q6" s="96"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="20">
         <v>5.2623999999999997E-2</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="20">
+      <c r="T6" s="35"/>
+      <c r="U6" s="20">
         <v>5.7784999999999998E-3</v>
       </c>
-      <c r="U6" s="21">
-        <f>Q6*$M$6+S6*$O$6</f>
+      <c r="V6" s="21">
+        <f>R6*$M$6+T6*$O$6</f>
         <v>0</v>
       </c>
+      <c r="Y6">
+        <f>E6/K6</f>
+        <v>1.2358490566037736</v>
+      </c>
+      <c r="Z6">
+        <f>D6+E6</f>
+        <v>145</v>
+      </c>
+      <c r="AA6" s="102">
+        <f>J6+K6</f>
+        <v>146</v>
+      </c>
     </row>
-    <row r="7" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="16">
         <v>9</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="76">
         <v>128</v>
       </c>
-      <c r="F7" s="84">
+      <c r="F7" s="83">
         <v>6</v>
       </c>
       <c r="G7" s="18">
@@ -1247,27 +1316,40 @@
         <f t="shared" ref="P7:P14" si="1">L7*$M$6+N7*$O$6</f>
         <v>6.1139799499999994E-2</v>
       </c>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21">
-        <f t="shared" ref="U7:U14" si="2">Q7*$M$6+S7*$O$6</f>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21">
+        <f t="shared" ref="V7:V14" si="2">R7*$M$6+T7*$O$6</f>
         <v>0</v>
       </c>
+      <c r="Y7">
+        <f t="shared" ref="Y7:Y14" si="3">E7/K7</f>
+        <v>1.1851851851851851</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ref="Z7:Z14" si="4">D7+E7</f>
+        <v>137</v>
+      </c>
+      <c r="AA7" s="102">
+        <f t="shared" ref="AA7:AA14" si="5">J7+K7</f>
+        <v>149</v>
+      </c>
     </row>
-    <row r="8" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="15"/>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="16">
         <v>10</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="76">
         <v>136</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="83">
         <v>6</v>
       </c>
       <c r="G8" s="18">
@@ -1297,16 +1379,29 @@
         <f t="shared" si="1"/>
         <v>5.9957501499999996E-2</v>
       </c>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="21">
+      <c r="Q8" s="96"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Y8">
+        <f t="shared" si="3"/>
+        <v>1.2830188679245282</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="AA8" s="102">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
     </row>
-    <row r="9" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
@@ -1316,10 +1411,10 @@
       <c r="D9" s="14">
         <v>14</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="77">
         <v>328</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="84">
         <v>2</v>
       </c>
       <c r="G9" s="13">
@@ -1349,16 +1444,29 @@
         <f t="shared" si="1"/>
         <v>5.0221749499999996E-2</v>
       </c>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="12">
+      <c r="Q9" s="96"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Y9">
+        <f t="shared" si="3"/>
+        <v>1.6482412060301508</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="4"/>
+        <v>342</v>
+      </c>
+      <c r="AA9" s="102">
+        <f t="shared" si="5"/>
+        <v>239</v>
+      </c>
     </row>
-    <row r="10" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="6" t="s">
         <v>29</v>
@@ -1366,14 +1474,14 @@
       <c r="D10" s="14">
         <v>5</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="77">
         <v>337</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="84">
         <v>2</v>
       </c>
       <c r="G10" s="13">
-        <f t="shared" ref="G10:G11" si="3">E10/60/60*F10</f>
+        <f t="shared" ref="G10:G11" si="6">E10/60/60*F10</f>
         <v>0.18722222222222221</v>
       </c>
       <c r="H10" s="3"/>
@@ -1399,16 +1507,29 @@
         <f t="shared" si="1"/>
         <v>5.0542036999999998E-2</v>
       </c>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="12">
+      <c r="Q10" s="96"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="4"/>
+        <v>342</v>
+      </c>
+      <c r="AA10" s="102">
+        <f t="shared" si="5"/>
+        <v>238</v>
+      </c>
     </row>
-    <row r="11" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="6" t="s">
         <v>30</v>
@@ -1416,14 +1537,14 @@
       <c r="D11" s="14">
         <v>4</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="77">
         <v>324</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="84">
         <v>2</v>
       </c>
       <c r="G11" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="H11" s="3"/>
@@ -1449,26 +1570,39 @@
         <f t="shared" si="1"/>
         <v>5.0542036999999998E-2</v>
       </c>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="12">
+      <c r="Q11" s="96"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>1.6119402985074627</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="4"/>
+        <v>328</v>
+      </c>
+      <c r="AA11" s="102">
+        <f t="shared" si="5"/>
+        <v>241</v>
+      </c>
     </row>
-    <row r="12" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23">
         <v>6</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="78">
         <v>128</v>
       </c>
       <c r="F12" s="48" t="s">
@@ -1500,34 +1634,47 @@
         <f t="shared" si="1"/>
         <v>6.6334931E-2</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="96"/>
+      <c r="R12" s="99">
         <v>0.89700000000000002</v>
       </c>
-      <c r="R12" s="27"/>
-      <c r="S12" s="36">
+      <c r="S12" s="27"/>
+      <c r="T12" s="36">
         <v>3.5870000000000002</v>
       </c>
-      <c r="T12" s="27"/>
-      <c r="U12" s="28">
+      <c r="U12" s="27"/>
+      <c r="V12" s="28">
         <f t="shared" si="2"/>
         <v>6.7931207500000007E-2</v>
       </c>
-      <c r="V12" s="2">
-        <f>U12-P12</f>
+      <c r="W12" s="2">
+        <f>V12-P12</f>
         <v>1.5962765000000073E-3</v>
       </c>
+      <c r="Y12">
+        <f t="shared" si="3"/>
+        <v>1.0847457627118644</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="AA12" s="102">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
     </row>
-    <row r="13" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="23">
         <v>5</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="78">
         <v>113</v>
       </c>
       <c r="F13" s="48" t="s">
@@ -1559,32 +1706,45 @@
         <f t="shared" si="1"/>
         <v>6.8688587499999995E-2</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="96"/>
+      <c r="R13" s="99">
         <v>0.90900000000000003</v>
       </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="36">
+      <c r="S13" s="27"/>
+      <c r="T13" s="36">
         <v>3.6360000000000001</v>
       </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="28">
+      <c r="U13" s="27"/>
+      <c r="V13" s="28">
         <f t="shared" si="2"/>
         <v>6.8845842000000004E-2</v>
       </c>
-      <c r="V13" s="2">
-        <f t="shared" ref="V13:V14" si="4">U13-P13</f>
+      <c r="W13" s="2">
+        <f t="shared" ref="W13:W14" si="7">V13-P13</f>
         <v>1.5725450000000918E-4</v>
       </c>
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>0.94166666666666665</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="AA13" s="102">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
     </row>
-    <row r="14" spans="2:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="29"/>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="75" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="30">
         <v>4</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="81">
         <v>105</v>
       </c>
       <c r="F14" s="49" t="s">
@@ -1616,24 +1776,37 @@
         <f t="shared" si="1"/>
         <v>6.7482557999999998E-2</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="96"/>
+      <c r="R14" s="100">
         <v>0.90200000000000002</v>
       </c>
-      <c r="R14" s="34"/>
-      <c r="S14" s="37">
+      <c r="S14" s="34"/>
+      <c r="T14" s="37">
         <v>3.609</v>
       </c>
-      <c r="T14" s="34"/>
-      <c r="U14" s="28">
+      <c r="U14" s="34"/>
+      <c r="V14" s="101">
         <f t="shared" si="2"/>
         <v>6.832145449999999E-2</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
+        <f t="shared" si="7"/>
+        <v>8.388964999999915E-4</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="4"/>
-        <v>8.388964999999915E-4</v>
+        <v>109</v>
+      </c>
+      <c r="AA14" s="102">
+        <f t="shared" si="5"/>
+        <v>153</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -1646,7 +1819,7 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="R4:V4"/>
     <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
